--- a/AdAstra/Items-Blueprints.xlsx
+++ b/AdAstra/Items-Blueprints.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Types of Items" sheetId="4" r:id="rId1"/>
+    <sheet name="Sub Types" sheetId="5" r:id="rId2"/>
+    <sheet name="Items" sheetId="1" r:id="rId3"/>
+    <sheet name="Blueprints" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +21,185 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>Max Stack</t>
+  </si>
+  <si>
+    <t>In game size</t>
+  </si>
+  <si>
+    <t>Sprite name</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Structures</t>
+  </si>
+  <si>
+    <t>All types of tools, equipement and wearables for player.</t>
+  </si>
+  <si>
+    <t>Building structures for expanding player ship, wall, fundaments, doors, etc</t>
+  </si>
+  <si>
+    <t>Processing Machines</t>
+  </si>
+  <si>
+    <t>Anything what can be places in the ship and generate item or process one item in to anoter.</t>
+  </si>
+  <si>
+    <t>Root Types of Items</t>
+  </si>
+  <si>
+    <t>Consumables</t>
+  </si>
+  <si>
+    <t>Anything that can be used by player.</t>
+  </si>
+  <si>
+    <t>Needs correction - above is just rough ideas</t>
+  </si>
+  <si>
+    <t>Drills</t>
+  </si>
+  <si>
+    <t>Repair tools</t>
+  </si>
+  <si>
+    <t>Construction tools</t>
+  </si>
+  <si>
+    <t>Explosives</t>
+  </si>
+  <si>
+    <t>Scanning tools</t>
+  </si>
+  <si>
+    <t>Different wearables:</t>
+  </si>
+  <si>
+    <t>#air tanks</t>
+  </si>
+  <si>
+    <t>#thrusters</t>
+  </si>
+  <si>
+    <t>#force shields</t>
+  </si>
+  <si>
+    <t>Drones / Robots</t>
+  </si>
+  <si>
+    <t>Anythinig that can aid you whith different task on your ship and outside.</t>
+  </si>
+  <si>
+    <t>Foundations</t>
+  </si>
+  <si>
+    <t>Walls</t>
+  </si>
+  <si>
+    <t>Doors</t>
+  </si>
+  <si>
+    <t>(different shapes / forms)</t>
+  </si>
+  <si>
+    <t>(different features / stats)</t>
+  </si>
+  <si>
+    <t>Ore processing machines</t>
+  </si>
+  <si>
+    <t>3D printers</t>
+  </si>
+  <si>
+    <t>Alloy spelters</t>
+  </si>
+  <si>
+    <t>Energy related machines</t>
+  </si>
+  <si>
+    <t>Anythin that can be places out:</t>
+  </si>
+  <si>
+    <t>#solar panels</t>
+  </si>
+  <si>
+    <t>#miners</t>
+  </si>
+  <si>
+    <t>#turrents</t>
+  </si>
+  <si>
+    <t>Air related machines</t>
+  </si>
+  <si>
+    <t>Food / water related machines</t>
+  </si>
+  <si>
+    <t>Othe for manufacturing drones</t>
+  </si>
+  <si>
+    <t>Food related</t>
+  </si>
+  <si>
+    <t>Drink related</t>
+  </si>
+  <si>
+    <t>Medical related</t>
+  </si>
+  <si>
+    <t>Stats boosters</t>
+  </si>
+  <si>
+    <t>Slow-motion stuff</t>
+  </si>
+  <si>
+    <t>Drugs</t>
+  </si>
+  <si>
+    <t>One-use air tanks</t>
+  </si>
+  <si>
+    <t>Repair kits</t>
+  </si>
+  <si>
+    <t>Building kits</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Scanning</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +207,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -45,12 +272,241 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,6 +600,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +652,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,12 +821,3801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" style="16" customWidth="1"/>
+    <col min="4" max="27" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="33" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="2:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="2:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="2:3" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="2:3" ht="33" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="2:3" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="16"/>
+    </row>
+    <row r="41" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="16"/>
+    </row>
+    <row r="42" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="16"/>
+    </row>
+    <row r="43" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="16"/>
+    </row>
+    <row r="45" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="16"/>
+    </row>
+    <row r="52" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="16"/>
+    </row>
+    <row r="53" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="16"/>
+    </row>
+    <row r="55" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="16"/>
+    </row>
+    <row r="56" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="12"/>
+      <c r="C57" s="16"/>
+    </row>
+    <row r="58" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+      <c r="C58" s="16"/>
+    </row>
+    <row r="59" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+      <c r="C59" s="16"/>
+    </row>
+    <row r="60" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="12"/>
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="12"/>
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="12"/>
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="12"/>
+      <c r="C65" s="16"/>
+    </row>
+    <row r="66" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="12"/>
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="12"/>
+      <c r="C67" s="16"/>
+    </row>
+    <row r="68" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="12"/>
+      <c r="C68" s="16"/>
+    </row>
+    <row r="69" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="12"/>
+      <c r="C69" s="16"/>
+    </row>
+    <row r="70" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="12"/>
+      <c r="C70" s="16"/>
+    </row>
+    <row r="71" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="12"/>
+      <c r="C71" s="16"/>
+    </row>
+    <row r="72" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="12"/>
+      <c r="C72" s="16"/>
+    </row>
+    <row r="73" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="12"/>
+      <c r="C73" s="16"/>
+    </row>
+    <row r="74" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="12"/>
+      <c r="C74" s="16"/>
+    </row>
+    <row r="75" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="12"/>
+      <c r="C75" s="16"/>
+    </row>
+    <row r="76" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="C76" s="16"/>
+    </row>
+    <row r="77" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="12"/>
+      <c r="C77" s="16"/>
+    </row>
+    <row r="78" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="C78" s="16"/>
+    </row>
+    <row r="79" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
+      <c r="C79" s="16"/>
+    </row>
+    <row r="80" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="12"/>
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+      <c r="C81" s="16"/>
+    </row>
+    <row r="82" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="12"/>
+      <c r="C82" s="16"/>
+    </row>
+    <row r="83" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="12"/>
+      <c r="C83" s="16"/>
+    </row>
+    <row r="84" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="12"/>
+      <c r="C84" s="16"/>
+    </row>
+    <row r="85" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="C85" s="16"/>
+    </row>
+    <row r="86" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="12"/>
+      <c r="C86" s="16"/>
+    </row>
+    <row r="87" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="12"/>
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="12"/>
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="12"/>
+      <c r="C89" s="16"/>
+    </row>
+    <row r="90" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="12"/>
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="12"/>
+      <c r="C91" s="16"/>
+    </row>
+    <row r="92" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="12"/>
+      <c r="C92" s="16"/>
+    </row>
+    <row r="93" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="12"/>
+      <c r="C93" s="16"/>
+    </row>
+    <row r="94" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="12"/>
+      <c r="C94" s="16"/>
+    </row>
+    <row r="95" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="12"/>
+      <c r="C95" s="16"/>
+    </row>
+    <row r="96" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="12"/>
+      <c r="C96" s="16"/>
+    </row>
+    <row r="97" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="12"/>
+      <c r="C97" s="16"/>
+    </row>
+    <row r="98" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="12"/>
+      <c r="C98" s="16"/>
+    </row>
+    <row r="99" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="12"/>
+      <c r="C99" s="16"/>
+    </row>
+    <row r="100" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="12"/>
+      <c r="C100" s="16"/>
+    </row>
+    <row r="101" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="12"/>
+      <c r="C101" s="16"/>
+    </row>
+    <row r="102" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="12"/>
+      <c r="C102" s="16"/>
+    </row>
+    <row r="103" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="12"/>
+      <c r="C103" s="16"/>
+    </row>
+    <row r="104" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="12"/>
+      <c r="C104" s="16"/>
+    </row>
+    <row r="105" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="12"/>
+      <c r="C105" s="16"/>
+    </row>
+    <row r="106" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="12"/>
+      <c r="C106" s="16"/>
+    </row>
+    <row r="107" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="12"/>
+      <c r="C107" s="16"/>
+    </row>
+    <row r="108" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="12"/>
+      <c r="C108" s="16"/>
+    </row>
+    <row r="109" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="12"/>
+      <c r="C109" s="16"/>
+    </row>
+    <row r="110" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="12"/>
+      <c r="C110" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="17" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Types of Items'!$B$2:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:E1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q200"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="17" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+    </row>
+    <row r="109" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+    </row>
+    <row r="115" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+    </row>
+    <row r="121" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+    </row>
+    <row r="122" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+    </row>
+    <row r="123" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+    </row>
+    <row r="127" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+    </row>
+    <row r="131" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+    </row>
+    <row r="133" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+    </row>
+    <row r="134" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+    </row>
+    <row r="169" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+    </row>
+    <row r="181" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+    </row>
+    <row r="182" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+    </row>
+    <row r="183" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+    </row>
+    <row r="184" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+    </row>
+    <row r="190" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+    </row>
+    <row r="191" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="12"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+    </row>
+    <row r="197" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+    </row>
+    <row r="198" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+    </row>
+    <row r="199" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+    </row>
+    <row r="200" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q200"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="17" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="1:5" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+    </row>
+    <row r="109" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+    </row>
+    <row r="110" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+    </row>
+    <row r="111" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+    </row>
+    <row r="112" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+    </row>
+    <row r="113" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+    </row>
+    <row r="114" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+    </row>
+    <row r="115" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+    </row>
+    <row r="116" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+    </row>
+    <row r="117" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+    </row>
+    <row r="118" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+    </row>
+    <row r="119" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+    </row>
+    <row r="121" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+    </row>
+    <row r="122" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+    </row>
+    <row r="123" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+    </row>
+    <row r="124" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+    </row>
+    <row r="127" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+    </row>
+    <row r="128" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+    </row>
+    <row r="129" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+    </row>
+    <row r="130" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+    </row>
+    <row r="131" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+    </row>
+    <row r="132" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+    </row>
+    <row r="133" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+    </row>
+    <row r="134" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+    </row>
+    <row r="135" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+    </row>
+    <row r="136" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+    </row>
+    <row r="137" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+    </row>
+    <row r="138" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+    </row>
+    <row r="139" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+    </row>
+    <row r="140" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+    </row>
+    <row r="141" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+    </row>
+    <row r="142" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+    </row>
+    <row r="143" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+    </row>
+    <row r="144" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+    </row>
+    <row r="145" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+    </row>
+    <row r="146" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+    </row>
+    <row r="147" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+    </row>
+    <row r="148" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+    </row>
+    <row r="149" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+    </row>
+    <row r="150" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+    </row>
+    <row r="151" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+    </row>
+    <row r="152" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+    </row>
+    <row r="153" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+    </row>
+    <row r="154" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+    </row>
+    <row r="155" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+    </row>
+    <row r="156" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+    </row>
+    <row r="157" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+    </row>
+    <row r="158" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+    </row>
+    <row r="159" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+    </row>
+    <row r="160" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+    </row>
+    <row r="161" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+    </row>
+    <row r="162" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+    </row>
+    <row r="163" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+    </row>
+    <row r="164" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+    </row>
+    <row r="165" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+    </row>
+    <row r="166" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+    </row>
+    <row r="167" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+    </row>
+    <row r="168" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+    </row>
+    <row r="169" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+    </row>
+    <row r="170" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+    </row>
+    <row r="171" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+    </row>
+    <row r="172" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+    </row>
+    <row r="173" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+    </row>
+    <row r="175" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+    </row>
+    <row r="176" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+    </row>
+    <row r="177" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+    </row>
+    <row r="178" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+    </row>
+    <row r="181" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+    </row>
+    <row r="182" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+    </row>
+    <row r="183" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+    </row>
+    <row r="184" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+    </row>
+    <row r="185" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+    </row>
+    <row r="186" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+    </row>
+    <row r="187" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+    </row>
+    <row r="189" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+    </row>
+    <row r="190" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+    </row>
+    <row r="191" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+    </row>
+    <row r="192" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="12"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+    </row>
+    <row r="193" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+    </row>
+    <row r="194" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+    </row>
+    <row r="195" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+    </row>
+    <row r="196" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+    </row>
+    <row r="197" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+    </row>
+    <row r="198" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+    </row>
+    <row r="199" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+    </row>
+    <row r="200" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AdAstra/Items-Blueprints.xlsx
+++ b/AdAstra/Items-Blueprints.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
   <si>
     <t>Item ID</t>
   </si>
@@ -320,6 +320,57 @@
   </si>
   <si>
     <t xml:space="preserve">Purifying it makes ice for further processing.  </t>
+  </si>
+  <si>
+    <t>SiliconOre</t>
+  </si>
+  <si>
+    <t>Silicon Ore</t>
+  </si>
+  <si>
+    <t>silicon_ore</t>
+  </si>
+  <si>
+    <t>Most common mineral, used in most manufacturing processes.</t>
+  </si>
+  <si>
+    <t>IronOre</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
+  </si>
+  <si>
+    <t>iron_ore</t>
+  </si>
+  <si>
+    <t>TO-DO</t>
+  </si>
+  <si>
+    <t>CopperOre</t>
+  </si>
+  <si>
+    <t>Copper Ore</t>
+  </si>
+  <si>
+    <t>copper_ore</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>Iron Ingot</t>
+  </si>
+  <si>
+    <t>Silicon Ingot</t>
+  </si>
+  <si>
+    <t>silicon_ingot</t>
+  </si>
+  <si>
+    <t>iron_ingot</t>
   </si>
 </sst>
 </file>
@@ -726,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,9 +843,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,12 +894,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,6 +908,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1669,7 +1726,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="42" customWidth="1"/>
     <col min="2" max="2" width="57.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="86.140625" style="16" customWidth="1"/>
     <col min="4" max="27" width="9.140625" style="11"/>
@@ -1681,724 +1738,724 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="40" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="40" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="40" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="40" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="40" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="40" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="40" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="40" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="40" t="s">
         <v>81</v>
       </c>
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="40" t="s">
         <v>82</v>
       </c>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="40" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="40" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="40" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="43" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="40" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="40" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="40" t="s">
         <v>88</v>
       </c>
       <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:3" s="11" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="12"/>
       <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="12"/>
       <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="12"/>
       <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="12"/>
       <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="12"/>
       <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="12"/>
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="12"/>
       <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="12"/>
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="12"/>
       <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="12"/>
       <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="12"/>
       <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="12"/>
       <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="12"/>
       <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="12"/>
       <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="12"/>
       <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="12"/>
       <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="12"/>
       <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="12"/>
       <c r="C54" s="16"/>
     </row>
     <row r="55" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="12"/>
       <c r="C55" s="16"/>
     </row>
     <row r="56" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="42"/>
       <c r="B56" s="12"/>
       <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="12"/>
       <c r="C57" s="16"/>
     </row>
     <row r="58" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="12"/>
       <c r="C58" s="16"/>
     </row>
     <row r="59" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="12"/>
       <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="12"/>
       <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="12"/>
       <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="12"/>
       <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="12"/>
       <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="42"/>
       <c r="B64" s="12"/>
       <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
+      <c r="A65" s="42"/>
       <c r="B65" s="12"/>
       <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="12"/>
       <c r="C66" s="16"/>
     </row>
     <row r="67" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="12"/>
       <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="12"/>
       <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="12"/>
       <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="12"/>
       <c r="C70" s="16"/>
     </row>
     <row r="71" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="12"/>
       <c r="C71" s="16"/>
     </row>
     <row r="72" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="12"/>
       <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="42"/>
       <c r="B73" s="12"/>
       <c r="C73" s="16"/>
     </row>
     <row r="74" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="12"/>
       <c r="C74" s="16"/>
     </row>
     <row r="75" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
+      <c r="A75" s="42"/>
       <c r="B75" s="12"/>
       <c r="C75" s="16"/>
     </row>
     <row r="76" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
+      <c r="A76" s="42"/>
       <c r="B76" s="12"/>
       <c r="C76" s="16"/>
     </row>
     <row r="77" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
+      <c r="A77" s="42"/>
       <c r="B77" s="12"/>
       <c r="C77" s="16"/>
     </row>
     <row r="78" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
+      <c r="A78" s="42"/>
       <c r="B78" s="12"/>
       <c r="C78" s="16"/>
     </row>
     <row r="79" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
+      <c r="A79" s="42"/>
       <c r="B79" s="12"/>
       <c r="C79" s="16"/>
     </row>
     <row r="80" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
+      <c r="A80" s="42"/>
       <c r="B80" s="12"/>
       <c r="C80" s="16"/>
     </row>
     <row r="81" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
+      <c r="A81" s="42"/>
       <c r="B81" s="12"/>
       <c r="C81" s="16"/>
     </row>
     <row r="82" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
+      <c r="A82" s="42"/>
       <c r="B82" s="12"/>
       <c r="C82" s="16"/>
     </row>
     <row r="83" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
+      <c r="A83" s="42"/>
       <c r="B83" s="12"/>
       <c r="C83" s="16"/>
     </row>
     <row r="84" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
+      <c r="A84" s="42"/>
       <c r="B84" s="12"/>
       <c r="C84" s="16"/>
     </row>
     <row r="85" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
+      <c r="A85" s="42"/>
       <c r="B85" s="12"/>
       <c r="C85" s="16"/>
     </row>
     <row r="86" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
+      <c r="A86" s="42"/>
       <c r="B86" s="12"/>
       <c r="C86" s="16"/>
     </row>
     <row r="87" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
+      <c r="A87" s="42"/>
       <c r="B87" s="12"/>
       <c r="C87" s="16"/>
     </row>
     <row r="88" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
+      <c r="A88" s="42"/>
       <c r="B88" s="12"/>
       <c r="C88" s="16"/>
     </row>
     <row r="89" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="42"/>
       <c r="B89" s="12"/>
       <c r="C89" s="16"/>
     </row>
     <row r="90" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
+      <c r="A90" s="42"/>
       <c r="B90" s="12"/>
       <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
+      <c r="A91" s="42"/>
       <c r="B91" s="12"/>
       <c r="C91" s="16"/>
     </row>
     <row r="92" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
+      <c r="A92" s="42"/>
       <c r="B92" s="12"/>
       <c r="C92" s="16"/>
     </row>
     <row r="93" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
+      <c r="A93" s="42"/>
       <c r="B93" s="12"/>
       <c r="C93" s="16"/>
     </row>
     <row r="94" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
+      <c r="A94" s="42"/>
       <c r="B94" s="12"/>
       <c r="C94" s="16"/>
     </row>
     <row r="95" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
+      <c r="A95" s="42"/>
       <c r="B95" s="12"/>
       <c r="C95" s="16"/>
     </row>
     <row r="96" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
+      <c r="A96" s="42"/>
       <c r="B96" s="12"/>
       <c r="C96" s="16"/>
     </row>
     <row r="97" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
+      <c r="A97" s="42"/>
       <c r="B97" s="12"/>
       <c r="C97" s="16"/>
     </row>
     <row r="98" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
+      <c r="A98" s="42"/>
       <c r="B98" s="12"/>
       <c r="C98" s="16"/>
     </row>
     <row r="99" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
+      <c r="A99" s="42"/>
       <c r="B99" s="12"/>
       <c r="C99" s="16"/>
     </row>
     <row r="100" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
+      <c r="A100" s="42"/>
       <c r="B100" s="12"/>
       <c r="C100" s="16"/>
     </row>
     <row r="101" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
+      <c r="A101" s="42"/>
       <c r="B101" s="12"/>
       <c r="C101" s="16"/>
     </row>
     <row r="102" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
+      <c r="A102" s="42"/>
       <c r="B102" s="12"/>
       <c r="C102" s="16"/>
     </row>
     <row r="103" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="45"/>
+      <c r="A103" s="42"/>
       <c r="B103" s="12"/>
       <c r="C103" s="16"/>
     </row>
     <row r="104" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
+      <c r="A104" s="42"/>
       <c r="B104" s="12"/>
       <c r="C104" s="16"/>
     </row>
     <row r="105" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
+      <c r="A105" s="42"/>
       <c r="B105" s="12"/>
       <c r="C105" s="16"/>
     </row>
     <row r="106" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="45"/>
+      <c r="A106" s="42"/>
       <c r="B106" s="12"/>
       <c r="C106" s="16"/>
     </row>
     <row r="107" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
+      <c r="A107" s="42"/>
       <c r="B107" s="12"/>
       <c r="C107" s="16"/>
     </row>
     <row r="108" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
+      <c r="A108" s="42"/>
       <c r="B108" s="12"/>
       <c r="C108" s="16"/>
     </row>
     <row r="109" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
+      <c r="A109" s="42"/>
       <c r="B109" s="12"/>
       <c r="C109" s="16"/>
     </row>
     <row r="110" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
+      <c r="A110" s="42"/>
       <c r="B110" s="12"/>
       <c r="C110" s="16"/>
     </row>
     <row r="111" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
+      <c r="A111" s="42"/>
       <c r="B111" s="12"/>
       <c r="C111" s="16"/>
     </row>
     <row r="112" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
+      <c r="A112" s="42"/>
       <c r="B112" s="12"/>
       <c r="C112" s="16"/>
     </row>
     <row r="113" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
+      <c r="A113" s="42"/>
       <c r="B113" s="12"/>
       <c r="C113" s="16"/>
     </row>
     <row r="114" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="45"/>
+      <c r="A114" s="42"/>
       <c r="B114" s="12"/>
       <c r="C114" s="16"/>
     </row>
     <row r="115" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="45"/>
+      <c r="A115" s="42"/>
       <c r="B115" s="12"/>
       <c r="C115" s="16"/>
     </row>
     <row r="116" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="45"/>
+      <c r="A116" s="42"/>
       <c r="B116" s="12"/>
       <c r="C116" s="16"/>
     </row>
     <row r="117" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
+      <c r="A117" s="42"/>
       <c r="B117" s="12"/>
       <c r="C117" s="16"/>
     </row>
     <row r="118" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="45"/>
+      <c r="A118" s="42"/>
       <c r="B118" s="12"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
+      <c r="A119" s="42"/>
       <c r="B119" s="12"/>
       <c r="C119" s="16"/>
     </row>
     <row r="120" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="45"/>
+      <c r="A120" s="42"/>
       <c r="B120" s="12"/>
       <c r="C120" s="16"/>
     </row>
     <row r="121" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="45"/>
+      <c r="A121" s="42"/>
       <c r="B121" s="12"/>
       <c r="C121" s="16"/>
     </row>
     <row r="122" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="45"/>
+      <c r="A122" s="42"/>
       <c r="B122" s="12"/>
       <c r="C122" s="16"/>
     </row>
     <row r="123" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="45"/>
+      <c r="A123" s="42"/>
       <c r="B123" s="12"/>
       <c r="C123" s="16"/>
     </row>
     <row r="124" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="45"/>
+      <c r="A124" s="42"/>
       <c r="B124" s="12"/>
       <c r="C124" s="16"/>
     </row>
     <row r="125" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="45"/>
+      <c r="A125" s="42"/>
       <c r="B125" s="12"/>
       <c r="C125" s="16"/>
     </row>
     <row r="126" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="45"/>
+      <c r="A126" s="42"/>
       <c r="B126" s="12"/>
       <c r="C126" s="16"/>
     </row>
     <row r="127" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="45"/>
+      <c r="A127" s="42"/>
       <c r="B127" s="12"/>
       <c r="C127" s="16"/>
     </row>
     <row r="128" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="45"/>
+      <c r="A128" s="42"/>
       <c r="B128" s="12"/>
       <c r="C128" s="16"/>
     </row>
     <row r="129" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="45"/>
+      <c r="A129" s="42"/>
       <c r="B129" s="12"/>
       <c r="C129" s="16"/>
     </row>
     <row r="130" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="45"/>
+      <c r="A130" s="42"/>
       <c r="B130" s="12"/>
       <c r="C130" s="16"/>
     </row>
     <row r="131" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="45"/>
+      <c r="A131" s="42"/>
       <c r="B131" s="12"/>
       <c r="C131" s="16"/>
     </row>
     <row r="132" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="45"/>
+      <c r="A132" s="42"/>
       <c r="B132" s="12"/>
       <c r="C132" s="16"/>
     </row>
     <row r="133" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="45"/>
+      <c r="A133" s="42"/>
       <c r="B133" s="12"/>
       <c r="C133" s="16"/>
     </row>
     <row r="134" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="45"/>
+      <c r="A134" s="42"/>
       <c r="B134" s="12"/>
       <c r="C134" s="16"/>
     </row>
     <row r="135" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="45"/>
+      <c r="A135" s="42"/>
       <c r="B135" s="12"/>
       <c r="C135" s="16"/>
     </row>
@@ -2414,7 +2471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2424,7 +2481,7 @@
     <col min="4" max="7" width="14.28515625" style="18" customWidth="1"/>
     <col min="8" max="10" width="15.140625" style="18" customWidth="1"/>
     <col min="11" max="12" width="14.28515625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="49.85546875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="49.85546875" style="49" customWidth="1"/>
     <col min="14" max="25" width="9.140625" style="11"/>
   </cols>
   <sheetData>
@@ -2441,7 +2498,7 @@
       <c r="D1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>61</v>
       </c>
       <c r="F1" s="19" t="s">
@@ -2465,1525 +2522,1649 @@
       <c r="L1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="38">
         <v>20</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="41" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="46" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="41"/>
+      <c r="A3" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="38">
+        <v>20</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="46" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="41"/>
+      <c r="A4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="38">
+        <v>20</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="41"/>
+      <c r="A5" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="38">
+        <v>20</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="41"/>
+      <c r="A6" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="38">
+        <v>10</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="41"/>
+      <c r="A7" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="38">
+        <v>10</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="41"/>
+      <c r="A8" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="38">
+        <v>10</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="41"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="41"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="41"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="41"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="41"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="41"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="41"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="41"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="41"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="41"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="41"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="41"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="41"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="41"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="41"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="41"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="41"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="41"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="41"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="41"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="41"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="46" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="41"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="41"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="46"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="41"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="46"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="41"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="46"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="41"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="46"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="41"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="46"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="41"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="46"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="41"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="46"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="41"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="46"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="41"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="46"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="41"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="46"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="41"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="46"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="41"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="46"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="41"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="46"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="41"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="46"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="41"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="46"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="41"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="46"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="41"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="46"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="41"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="46"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="41"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="46"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="41"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="46"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="41"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="46"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="41"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="46"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="41"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="46"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="41"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="46"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="41"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="46"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="41"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="46"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="41"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="46"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="41"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="46"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="41"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="46"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="41"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="46"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="41"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="46"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="41"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="46"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="41"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="46"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="41"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="46"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="41"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="46"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="41"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="46"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="41"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="46"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="41"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="46"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="41"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="46"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="41"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="46"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="41"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="46"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="41"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="46"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="41"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="46"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="41"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="46"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="41"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="46"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="41"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="46"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="41"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="46"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="41"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="46"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="41"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="46"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="41"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="46"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="41"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="46"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="41"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="46"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="41"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="46"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="41"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="46"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="41"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="46"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="41"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="46"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="41"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="46"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="41"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="46"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="41"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="46"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="41"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="46"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="41"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="46"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="41"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="46"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="41"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="46"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="41"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="46"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="25"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="41"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="46"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="25"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="41"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="46"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="41"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="46"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="25"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="41"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="46"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="41"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="46"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="41"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="46"/>
     </row>
     <row r="101" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="38"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="42"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="47"/>
     </row>
     <row r="102" spans="1:13" s="11" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
@@ -3998,7 +4179,7 @@
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
       <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
+      <c r="M102" s="48"/>
     </row>
     <row r="103" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
@@ -4013,7 +4194,7 @@
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
       <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
+      <c r="M103" s="48"/>
     </row>
     <row r="104" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
@@ -4028,7 +4209,7 @@
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
       <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
+      <c r="M104" s="48"/>
     </row>
     <row r="105" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
@@ -4043,7 +4224,7 @@
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
       <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
+      <c r="M105" s="48"/>
     </row>
     <row r="106" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
@@ -4058,7 +4239,7 @@
       <c r="J106" s="17"/>
       <c r="K106" s="17"/>
       <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
+      <c r="M106" s="48"/>
     </row>
     <row r="107" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
@@ -4073,7 +4254,7 @@
       <c r="J107" s="17"/>
       <c r="K107" s="17"/>
       <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
+      <c r="M107" s="48"/>
     </row>
     <row r="108" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
@@ -4088,7 +4269,7 @@
       <c r="J108" s="17"/>
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
+      <c r="M108" s="48"/>
     </row>
     <row r="109" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
@@ -4103,7 +4284,7 @@
       <c r="J109" s="17"/>
       <c r="K109" s="17"/>
       <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
+      <c r="M109" s="48"/>
     </row>
     <row r="110" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
@@ -4118,7 +4299,7 @@
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
       <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
+      <c r="M110" s="48"/>
     </row>
     <row r="111" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
@@ -4133,7 +4314,7 @@
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
+      <c r="M111" s="48"/>
     </row>
     <row r="112" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
@@ -4148,7 +4329,7 @@
       <c r="J112" s="17"/>
       <c r="K112" s="17"/>
       <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
+      <c r="M112" s="48"/>
     </row>
     <row r="113" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
@@ -4163,7 +4344,7 @@
       <c r="J113" s="17"/>
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
+      <c r="M113" s="48"/>
     </row>
     <row r="114" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
@@ -4178,7 +4359,7 @@
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
       <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
+      <c r="M114" s="48"/>
     </row>
     <row r="115" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
@@ -4193,7 +4374,7 @@
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
       <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
+      <c r="M115" s="48"/>
     </row>
     <row r="116" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
@@ -4208,7 +4389,7 @@
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
       <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
+      <c r="M116" s="48"/>
     </row>
     <row r="117" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
@@ -4223,7 +4404,7 @@
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
       <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
+      <c r="M117" s="48"/>
     </row>
     <row r="118" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
@@ -4238,7 +4419,7 @@
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
       <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
+      <c r="M118" s="48"/>
     </row>
     <row r="119" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
@@ -4253,7 +4434,7 @@
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
       <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
+      <c r="M119" s="48"/>
     </row>
     <row r="120" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
@@ -4268,7 +4449,7 @@
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
       <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
+      <c r="M120" s="48"/>
     </row>
     <row r="121" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
@@ -4283,7 +4464,7 @@
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
+      <c r="M121" s="48"/>
     </row>
     <row r="122" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
@@ -4298,7 +4479,7 @@
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
       <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
+      <c r="M122" s="48"/>
     </row>
     <row r="123" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
@@ -4313,7 +4494,7 @@
       <c r="J123" s="17"/>
       <c r="K123" s="17"/>
       <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
+      <c r="M123" s="48"/>
     </row>
     <row r="124" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
@@ -4328,7 +4509,7 @@
       <c r="J124" s="17"/>
       <c r="K124" s="17"/>
       <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
+      <c r="M124" s="48"/>
     </row>
     <row r="125" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
@@ -4343,7 +4524,7 @@
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
       <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
+      <c r="M125" s="48"/>
     </row>
     <row r="126" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17"/>
@@ -4358,7 +4539,7 @@
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
       <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
+      <c r="M126" s="48"/>
     </row>
     <row r="127" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
@@ -4373,7 +4554,7 @@
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
       <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
+      <c r="M127" s="48"/>
     </row>
     <row r="128" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
@@ -4388,7 +4569,7 @@
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
       <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
+      <c r="M128" s="48"/>
     </row>
     <row r="129" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
@@ -4403,7 +4584,7 @@
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
       <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
+      <c r="M129" s="48"/>
     </row>
     <row r="130" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
@@ -4418,7 +4599,7 @@
       <c r="J130" s="17"/>
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
+      <c r="M130" s="48"/>
     </row>
     <row r="131" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
@@ -4433,7 +4614,7 @@
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
       <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
+      <c r="M131" s="48"/>
     </row>
     <row r="132" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
@@ -4448,7 +4629,7 @@
       <c r="J132" s="17"/>
       <c r="K132" s="17"/>
       <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
+      <c r="M132" s="48"/>
     </row>
     <row r="133" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
@@ -4463,7 +4644,7 @@
       <c r="J133" s="17"/>
       <c r="K133" s="17"/>
       <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
+      <c r="M133" s="48"/>
     </row>
     <row r="134" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
@@ -4478,7 +4659,7 @@
       <c r="J134" s="17"/>
       <c r="K134" s="17"/>
       <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
+      <c r="M134" s="48"/>
     </row>
     <row r="135" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
@@ -4493,7 +4674,7 @@
       <c r="J135" s="17"/>
       <c r="K135" s="17"/>
       <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
+      <c r="M135" s="48"/>
     </row>
     <row r="136" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17"/>
@@ -4508,7 +4689,7 @@
       <c r="J136" s="17"/>
       <c r="K136" s="17"/>
       <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
+      <c r="M136" s="48"/>
     </row>
     <row r="137" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
@@ -4523,7 +4704,7 @@
       <c r="J137" s="17"/>
       <c r="K137" s="17"/>
       <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
+      <c r="M137" s="48"/>
     </row>
     <row r="138" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
@@ -4538,7 +4719,7 @@
       <c r="J138" s="17"/>
       <c r="K138" s="17"/>
       <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
+      <c r="M138" s="48"/>
     </row>
     <row r="139" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
@@ -4553,7 +4734,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
+      <c r="M139" s="48"/>
     </row>
     <row r="140" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
@@ -4568,7 +4749,7 @@
       <c r="J140" s="17"/>
       <c r="K140" s="17"/>
       <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
+      <c r="M140" s="48"/>
     </row>
     <row r="141" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
@@ -4583,7 +4764,7 @@
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
       <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
+      <c r="M141" s="48"/>
     </row>
     <row r="142" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
@@ -4598,7 +4779,7 @@
       <c r="J142" s="17"/>
       <c r="K142" s="17"/>
       <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
+      <c r="M142" s="48"/>
     </row>
     <row r="143" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
@@ -4613,7 +4794,7 @@
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
       <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
+      <c r="M143" s="48"/>
     </row>
     <row r="144" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
@@ -4628,7 +4809,7 @@
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
       <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
+      <c r="M144" s="48"/>
     </row>
     <row r="145" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
@@ -4643,7 +4824,7 @@
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
       <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
+      <c r="M145" s="48"/>
     </row>
     <row r="146" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
@@ -4658,7 +4839,7 @@
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
       <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
+      <c r="M146" s="48"/>
     </row>
     <row r="147" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
@@ -4673,7 +4854,7 @@
       <c r="J147" s="17"/>
       <c r="K147" s="17"/>
       <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
+      <c r="M147" s="48"/>
     </row>
     <row r="148" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
@@ -4688,7 +4869,7 @@
       <c r="J148" s="17"/>
       <c r="K148" s="17"/>
       <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
+      <c r="M148" s="48"/>
     </row>
     <row r="149" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
@@ -4703,7 +4884,7 @@
       <c r="J149" s="17"/>
       <c r="K149" s="17"/>
       <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
+      <c r="M149" s="48"/>
     </row>
     <row r="150" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
@@ -4718,7 +4899,7 @@
       <c r="J150" s="17"/>
       <c r="K150" s="17"/>
       <c r="L150" s="17"/>
-      <c r="M150" s="17"/>
+      <c r="M150" s="48"/>
     </row>
     <row r="151" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
@@ -4733,7 +4914,7 @@
       <c r="J151" s="17"/>
       <c r="K151" s="17"/>
       <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
+      <c r="M151" s="48"/>
     </row>
     <row r="152" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
@@ -4748,7 +4929,7 @@
       <c r="J152" s="17"/>
       <c r="K152" s="17"/>
       <c r="L152" s="17"/>
-      <c r="M152" s="17"/>
+      <c r="M152" s="48"/>
     </row>
     <row r="153" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
@@ -4763,7 +4944,7 @@
       <c r="J153" s="17"/>
       <c r="K153" s="17"/>
       <c r="L153" s="17"/>
-      <c r="M153" s="17"/>
+      <c r="M153" s="48"/>
     </row>
     <row r="154" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
@@ -4778,7 +4959,7 @@
       <c r="J154" s="17"/>
       <c r="K154" s="17"/>
       <c r="L154" s="17"/>
-      <c r="M154" s="17"/>
+      <c r="M154" s="48"/>
     </row>
     <row r="155" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
@@ -4793,7 +4974,7 @@
       <c r="J155" s="17"/>
       <c r="K155" s="17"/>
       <c r="L155" s="17"/>
-      <c r="M155" s="17"/>
+      <c r="M155" s="48"/>
     </row>
     <row r="156" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
@@ -4808,7 +4989,7 @@
       <c r="J156" s="17"/>
       <c r="K156" s="17"/>
       <c r="L156" s="17"/>
-      <c r="M156" s="17"/>
+      <c r="M156" s="48"/>
     </row>
     <row r="157" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
@@ -4823,7 +5004,7 @@
       <c r="J157" s="17"/>
       <c r="K157" s="17"/>
       <c r="L157" s="17"/>
-      <c r="M157" s="17"/>
+      <c r="M157" s="48"/>
     </row>
     <row r="158" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
@@ -4838,7 +5019,7 @@
       <c r="J158" s="17"/>
       <c r="K158" s="17"/>
       <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
+      <c r="M158" s="48"/>
     </row>
     <row r="159" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
@@ -4853,7 +5034,7 @@
       <c r="J159" s="17"/>
       <c r="K159" s="17"/>
       <c r="L159" s="17"/>
-      <c r="M159" s="17"/>
+      <c r="M159" s="48"/>
     </row>
     <row r="160" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
@@ -4868,7 +5049,7 @@
       <c r="J160" s="17"/>
       <c r="K160" s="17"/>
       <c r="L160" s="17"/>
-      <c r="M160" s="17"/>
+      <c r="M160" s="48"/>
     </row>
     <row r="161" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
@@ -4883,7 +5064,7 @@
       <c r="J161" s="17"/>
       <c r="K161" s="17"/>
       <c r="L161" s="17"/>
-      <c r="M161" s="17"/>
+      <c r="M161" s="48"/>
     </row>
     <row r="162" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
@@ -4898,7 +5079,7 @@
       <c r="J162" s="17"/>
       <c r="K162" s="17"/>
       <c r="L162" s="17"/>
-      <c r="M162" s="17"/>
+      <c r="M162" s="48"/>
     </row>
     <row r="163" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
@@ -4913,7 +5094,7 @@
       <c r="J163" s="17"/>
       <c r="K163" s="17"/>
       <c r="L163" s="17"/>
-      <c r="M163" s="17"/>
+      <c r="M163" s="48"/>
     </row>
     <row r="164" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
@@ -4928,7 +5109,7 @@
       <c r="J164" s="17"/>
       <c r="K164" s="17"/>
       <c r="L164" s="17"/>
-      <c r="M164" s="17"/>
+      <c r="M164" s="48"/>
     </row>
     <row r="165" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
@@ -4943,7 +5124,7 @@
       <c r="J165" s="17"/>
       <c r="K165" s="17"/>
       <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
+      <c r="M165" s="48"/>
     </row>
     <row r="166" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
@@ -4958,7 +5139,7 @@
       <c r="J166" s="17"/>
       <c r="K166" s="17"/>
       <c r="L166" s="17"/>
-      <c r="M166" s="17"/>
+      <c r="M166" s="48"/>
     </row>
     <row r="167" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17"/>
@@ -4973,7 +5154,7 @@
       <c r="J167" s="17"/>
       <c r="K167" s="17"/>
       <c r="L167" s="17"/>
-      <c r="M167" s="17"/>
+      <c r="M167" s="48"/>
     </row>
     <row r="168" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
@@ -4988,7 +5169,7 @@
       <c r="J168" s="17"/>
       <c r="K168" s="17"/>
       <c r="L168" s="17"/>
-      <c r="M168" s="17"/>
+      <c r="M168" s="48"/>
     </row>
     <row r="169" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
@@ -5003,7 +5184,7 @@
       <c r="J169" s="17"/>
       <c r="K169" s="17"/>
       <c r="L169" s="17"/>
-      <c r="M169" s="17"/>
+      <c r="M169" s="48"/>
     </row>
     <row r="170" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
@@ -5018,7 +5199,7 @@
       <c r="J170" s="17"/>
       <c r="K170" s="17"/>
       <c r="L170" s="17"/>
-      <c r="M170" s="17"/>
+      <c r="M170" s="48"/>
     </row>
     <row r="171" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
@@ -5033,7 +5214,7 @@
       <c r="J171" s="17"/>
       <c r="K171" s="17"/>
       <c r="L171" s="17"/>
-      <c r="M171" s="17"/>
+      <c r="M171" s="48"/>
     </row>
     <row r="172" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
@@ -5048,7 +5229,7 @@
       <c r="J172" s="17"/>
       <c r="K172" s="17"/>
       <c r="L172" s="17"/>
-      <c r="M172" s="17"/>
+      <c r="M172" s="48"/>
     </row>
     <row r="173" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
@@ -5063,7 +5244,7 @@
       <c r="J173" s="17"/>
       <c r="K173" s="17"/>
       <c r="L173" s="17"/>
-      <c r="M173" s="17"/>
+      <c r="M173" s="48"/>
     </row>
     <row r="174" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
@@ -5078,7 +5259,7 @@
       <c r="J174" s="17"/>
       <c r="K174" s="17"/>
       <c r="L174" s="17"/>
-      <c r="M174" s="17"/>
+      <c r="M174" s="48"/>
     </row>
     <row r="175" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
@@ -5093,7 +5274,7 @@
       <c r="J175" s="17"/>
       <c r="K175" s="17"/>
       <c r="L175" s="17"/>
-      <c r="M175" s="17"/>
+      <c r="M175" s="48"/>
     </row>
     <row r="176" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
@@ -5108,7 +5289,7 @@
       <c r="J176" s="17"/>
       <c r="K176" s="17"/>
       <c r="L176" s="17"/>
-      <c r="M176" s="17"/>
+      <c r="M176" s="48"/>
     </row>
     <row r="177" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
@@ -5123,7 +5304,7 @@
       <c r="J177" s="17"/>
       <c r="K177" s="17"/>
       <c r="L177" s="17"/>
-      <c r="M177" s="17"/>
+      <c r="M177" s="48"/>
     </row>
     <row r="178" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
@@ -5138,7 +5319,7 @@
       <c r="J178" s="17"/>
       <c r="K178" s="17"/>
       <c r="L178" s="17"/>
-      <c r="M178" s="17"/>
+      <c r="M178" s="48"/>
     </row>
     <row r="179" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
@@ -5153,7 +5334,7 @@
       <c r="J179" s="17"/>
       <c r="K179" s="17"/>
       <c r="L179" s="17"/>
-      <c r="M179" s="17"/>
+      <c r="M179" s="48"/>
     </row>
     <row r="180" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
@@ -5168,7 +5349,7 @@
       <c r="J180" s="17"/>
       <c r="K180" s="17"/>
       <c r="L180" s="17"/>
-      <c r="M180" s="17"/>
+      <c r="M180" s="48"/>
     </row>
     <row r="181" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
@@ -5183,7 +5364,7 @@
       <c r="J181" s="17"/>
       <c r="K181" s="17"/>
       <c r="L181" s="17"/>
-      <c r="M181" s="17"/>
+      <c r="M181" s="48"/>
     </row>
     <row r="182" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
@@ -5198,7 +5379,7 @@
       <c r="J182" s="17"/>
       <c r="K182" s="17"/>
       <c r="L182" s="17"/>
-      <c r="M182" s="17"/>
+      <c r="M182" s="48"/>
     </row>
     <row r="183" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
@@ -5213,7 +5394,7 @@
       <c r="J183" s="17"/>
       <c r="K183" s="17"/>
       <c r="L183" s="17"/>
-      <c r="M183" s="17"/>
+      <c r="M183" s="48"/>
     </row>
     <row r="184" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
@@ -5228,7 +5409,7 @@
       <c r="J184" s="17"/>
       <c r="K184" s="17"/>
       <c r="L184" s="17"/>
-      <c r="M184" s="17"/>
+      <c r="M184" s="48"/>
     </row>
     <row r="185" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
@@ -5243,7 +5424,7 @@
       <c r="J185" s="17"/>
       <c r="K185" s="17"/>
       <c r="L185" s="17"/>
-      <c r="M185" s="17"/>
+      <c r="M185" s="48"/>
     </row>
     <row r="186" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
@@ -5258,7 +5439,7 @@
       <c r="J186" s="17"/>
       <c r="K186" s="17"/>
       <c r="L186" s="17"/>
-      <c r="M186" s="17"/>
+      <c r="M186" s="48"/>
     </row>
     <row r="187" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
@@ -5273,7 +5454,7 @@
       <c r="J187" s="17"/>
       <c r="K187" s="17"/>
       <c r="L187" s="17"/>
-      <c r="M187" s="17"/>
+      <c r="M187" s="48"/>
     </row>
     <row r="188" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17"/>
@@ -5288,7 +5469,7 @@
       <c r="J188" s="17"/>
       <c r="K188" s="17"/>
       <c r="L188" s="17"/>
-      <c r="M188" s="17"/>
+      <c r="M188" s="48"/>
     </row>
     <row r="189" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
@@ -5303,7 +5484,7 @@
       <c r="J189" s="17"/>
       <c r="K189" s="17"/>
       <c r="L189" s="17"/>
-      <c r="M189" s="17"/>
+      <c r="M189" s="48"/>
     </row>
     <row r="190" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
@@ -5318,7 +5499,7 @@
       <c r="J190" s="17"/>
       <c r="K190" s="17"/>
       <c r="L190" s="17"/>
-      <c r="M190" s="17"/>
+      <c r="M190" s="48"/>
     </row>
     <row r="191" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17"/>
@@ -5333,7 +5514,7 @@
       <c r="J191" s="17"/>
       <c r="K191" s="17"/>
       <c r="L191" s="17"/>
-      <c r="M191" s="17"/>
+      <c r="M191" s="48"/>
     </row>
     <row r="192" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
@@ -5348,7 +5529,7 @@
       <c r="J192" s="17"/>
       <c r="K192" s="17"/>
       <c r="L192" s="17"/>
-      <c r="M192" s="17"/>
+      <c r="M192" s="48"/>
     </row>
     <row r="193" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
@@ -5363,7 +5544,7 @@
       <c r="J193" s="17"/>
       <c r="K193" s="17"/>
       <c r="L193" s="17"/>
-      <c r="M193" s="17"/>
+      <c r="M193" s="48"/>
     </row>
     <row r="194" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
@@ -5378,7 +5559,7 @@
       <c r="J194" s="17"/>
       <c r="K194" s="17"/>
       <c r="L194" s="17"/>
-      <c r="M194" s="17"/>
+      <c r="M194" s="48"/>
     </row>
     <row r="195" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
@@ -5393,7 +5574,7 @@
       <c r="J195" s="17"/>
       <c r="K195" s="17"/>
       <c r="L195" s="17"/>
-      <c r="M195" s="17"/>
+      <c r="M195" s="48"/>
     </row>
     <row r="196" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
@@ -5408,7 +5589,7 @@
       <c r="J196" s="17"/>
       <c r="K196" s="17"/>
       <c r="L196" s="17"/>
-      <c r="M196" s="17"/>
+      <c r="M196" s="48"/>
     </row>
     <row r="197" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
@@ -5423,7 +5604,7 @@
       <c r="J197" s="17"/>
       <c r="K197" s="17"/>
       <c r="L197" s="17"/>
-      <c r="M197" s="17"/>
+      <c r="M197" s="48"/>
     </row>
     <row r="198" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
@@ -5438,7 +5619,7 @@
       <c r="J198" s="17"/>
       <c r="K198" s="17"/>
       <c r="L198" s="17"/>
-      <c r="M198" s="17"/>
+      <c r="M198" s="48"/>
     </row>
     <row r="199" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
@@ -5453,7 +5634,7 @@
       <c r="J199" s="17"/>
       <c r="K199" s="17"/>
       <c r="L199" s="17"/>
-      <c r="M199" s="17"/>
+      <c r="M199" s="48"/>
     </row>
     <row r="200" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
@@ -5468,7 +5649,7 @@
       <c r="J200" s="17"/>
       <c r="K200" s="17"/>
       <c r="L200" s="17"/>
-      <c r="M200" s="17"/>
+      <c r="M200" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5524,7 +5705,7 @@
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -5571,1804 +5752,1804 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="27"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="27"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="27"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="27"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="27"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="27"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="27"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="27"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="27"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="27"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="27"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="27"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="27"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="27"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="27"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="27"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="27"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="27"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="27"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="27"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="27"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="27"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="27"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="27"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="27"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="27"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="27"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="27"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="27"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="27"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="26"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="27"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="26"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="27"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="26"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="27"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="26"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="27"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="26"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="27"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="26"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="27"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="26"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="27"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="26"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="27"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="26"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="27"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="26"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="27"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="26"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="27"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="26"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="27"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="26"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="27"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="26"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="27"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="26"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="27"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="26"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="27"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="26"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="27"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="26"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="27"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="26"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="27"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="26"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="27"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="26"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="27"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="26"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="27"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="26"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="27"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="26"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="27"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="26"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="27"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="26"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="27"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="26"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="27"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="26"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="27"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="26"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="27"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="26"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="27"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="26"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="27"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="26"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="27"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="26"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="27"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="26"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="27"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="26"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="27"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="26"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="27"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="26"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="27"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="26"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="27"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="26"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="27"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="26"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="27"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="26"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="27"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="26"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="27"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="26"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="27"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="26"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="27"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="26"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="27"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="26"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="27"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="26"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="27"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="26"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="27"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="26"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="27"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="26"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="27"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="26"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="27"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="23"/>
+      <c r="P83" s="26"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="27"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="26"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="27"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="26"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="27"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="26"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="27"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="26"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="27"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="26"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="27"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="26"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="27"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="26"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="27"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="26"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="27"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="26"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="27"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="26"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="27"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="26"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="27"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="26"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="27"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="26"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="24"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="27"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="26"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="27"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="26"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="27"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="26"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="27"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="26"/>
     </row>
     <row r="101" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="38"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="28"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="31"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="30"/>
     </row>
     <row r="102" spans="1:16" s="11" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
@@ -9395,48 +9576,48 @@
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
